--- a/Datasets/A Hardware-in-the-Loop Water/Documentos generados/Scripts Procesado y Validación/RESULTADOS_EXCEL.xlsx
+++ b/Datasets/A Hardware-in-the-Loop Water/Documentos generados/Scripts Procesado y Validación/RESULTADOS_EXCEL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J198"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -495,14 +495,14 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1618840276.742153</v>
+        <v>1618841079.494455</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x8029</t>
+          <t>0x0001</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -512,24 +512,24 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>84.3.251.102</t>
+          <t>84.3.251.103</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>37207</v>
+        <v>34969</v>
       </c>
       <c r="I2" t="n">
         <v>502</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>csv_T0888-NULL_SCAN_2-7[2]_flows.xlsx</t>
+          <t>csv_T0846-FIN_SCAN_2-11_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -537,14 +537,14 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1618840276.847931</v>
+        <v>1618841079.598324</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x8029</t>
+          <t>0x0001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -554,24 +554,24 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>84.3.251.102</t>
+          <t>84.3.251.103</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>37208</v>
+        <v>34970</v>
       </c>
       <c r="I3" t="n">
         <v>502</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>csv_T0888-NULL_SCAN_2-7[2]_flows.xlsx</t>
+          <t>csv_T0846-FIN_SCAN_2-11_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -607,13 +607,13 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>csv_T0830-ARP_Poisoning_1-1[1]_flows.xlsx</t>
+          <t>csv_T0830-ARP_Poisoning_1-1_fixed[1]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -621,14 +621,14 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1618839609.189864</v>
+        <v>1618839670.458471</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x0001</t>
+          <t>0x8029</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -638,24 +638,24 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>84.3.251.101</t>
+          <t>84.3.251.102</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>39519</v>
+        <v>41212</v>
       </c>
       <c r="I5" t="n">
         <v>502</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>csv_T0888-FIN_SCAN_2-2[2]_flows.xlsx</t>
+          <t>csv_T0846-XMAS_SCAN_2-3_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -663,14 +663,14 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1618839609.288831</v>
+        <v>1618839670.55655</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x0001</t>
+          <t>0x8029</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -680,24 +680,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>84.3.251.101</t>
+          <t>84.3.251.102</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>39520</v>
+        <v>41213</v>
       </c>
       <c r="I6" t="n">
         <v>502</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>csv_T0888-FIN_SCAN_2-2[2]_flows.xlsx</t>
+          <t>csv_T0846-XMAS_SCAN_2-3_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1618841079.494455</v>
+        <v>1618839609.189864</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -722,24 +722,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>84.3.251.103</t>
+          <t>84.3.251.101</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>34969</v>
+        <v>39519</v>
       </c>
       <c r="I7" t="n">
         <v>502</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>csv_T0888-FIN_SCAN_2-11[2]_flows.xlsx</t>
+          <t>csv_T0846-FIN_SCAN_2-2_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1618841079.598324</v>
+        <v>1618839609.288831</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
@@ -764,24 +764,24 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>84.3.251.103</t>
+          <t>84.3.251.101</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>34970</v>
+        <v>39520</v>
       </c>
       <c r="I8" t="n">
         <v>502</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>csv_T0888-FIN_SCAN_2-11[2]_flows.xlsx</t>
+          <t>csv_T0846-FIN_SCAN_2-2_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -789,41 +789,41 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1618841506.865118</v>
+        <v>1618840276.742153</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x0004</t>
+          <t>0x8029</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>84.3.251.101</t>
+          <t>84.3.251.110</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>84.3.251.18</t>
+          <t>84.3.251.102</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2732</v>
+        <v>37207</v>
       </c>
       <c r="I9" t="n">
         <v>502</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0846-NULL_SCAN_2-7_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>412</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -831,41 +831,41 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1618841506.890269</v>
+        <v>1618840276.847931</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x0004</t>
+          <t>0x8029</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>84.3.251.101</t>
+          <t>84.3.251.110</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>84.3.251.18</t>
+          <t>84.3.251.102</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2733</v>
+        <v>37208</v>
       </c>
       <c r="I10" t="n">
         <v>502</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0846-NULL_SCAN_2-7_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1434</v>
+        <v>359</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1618841507.453489</v>
+        <v>1618841506.865118</v>
       </c>
       <c r="D11" t="n">
         <v>6</v>
@@ -894,20 +894,20 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="I11" t="n">
         <v>502</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1513</v>
+        <v>405</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1618841507.49593</v>
+        <v>1618841506.890269</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -936,20 +936,20 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="I12" t="n">
         <v>502</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1568</v>
+        <v>1425</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1618841507.525827</v>
+        <v>1618841507.453489</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -978,20 +978,20 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="I13" t="n">
         <v>502</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1699</v>
+        <v>1504</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1618841507.599507</v>
+        <v>1618841507.49593</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -1020,20 +1020,20 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="I14" t="n">
         <v>502</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1804</v>
+        <v>1559</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1618841507.673304</v>
+        <v>1618841507.525827</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -1062,20 +1062,20 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="I15" t="n">
         <v>502</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1835</v>
+        <v>1690</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1618841507.698536</v>
+        <v>1618841507.599507</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -1104,20 +1104,20 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="I16" t="n">
         <v>502</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2462</v>
+        <v>1795</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1618841508.073981</v>
+        <v>1618841507.673304</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -1146,20 +1146,20 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="I17" t="n">
         <v>502</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2536</v>
+        <v>1826</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1618841508.113769</v>
+        <v>1618841507.698536</v>
       </c>
       <c r="D18" t="n">
         <v>6</v>
@@ -1188,20 +1188,20 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="I18" t="n">
         <v>502</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3858</v>
+        <v>2452</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1618841508.664119</v>
+        <v>1618841508.073981</v>
       </c>
       <c r="D19" t="n">
         <v>6</v>
@@ -1230,20 +1230,20 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="I19" t="n">
         <v>502</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5655</v>
+        <v>2526</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1618841509.282302</v>
+        <v>1618841508.113769</v>
       </c>
       <c r="D20" t="n">
         <v>6</v>
@@ -1272,20 +1272,20 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="I20" t="n">
         <v>502</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5840</v>
+        <v>3848</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1618841509.341624</v>
+        <v>1618841508.664119</v>
       </c>
       <c r="D21" t="n">
         <v>6</v>
@@ -1314,20 +1314,20 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="I21" t="n">
         <v>502</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5935</v>
+        <v>5645</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1618841509.371871</v>
+        <v>1618841509.282302</v>
       </c>
       <c r="D22" t="n">
         <v>6</v>
@@ -1356,20 +1356,20 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="I22" t="n">
         <v>502</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7682</v>
+        <v>5830</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1618841509.963822</v>
+        <v>1618841509.341624</v>
       </c>
       <c r="D23" t="n">
         <v>6</v>
@@ -1398,20 +1398,20 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="I23" t="n">
         <v>502</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7685</v>
+        <v>5925</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1618841509.965011</v>
+        <v>1618841509.371871</v>
       </c>
       <c r="D24" t="n">
         <v>6</v>
@@ -1440,20 +1440,20 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2787</v>
+        <v>2745</v>
       </c>
       <c r="I24" t="n">
         <v>502</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7686</v>
+        <v>7671</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1618841509.965076</v>
+        <v>1618841509.963822</v>
       </c>
       <c r="D25" t="n">
         <v>6</v>
@@ -1482,20 +1482,20 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2786</v>
+        <v>2746</v>
       </c>
       <c r="I25" t="n">
         <v>502</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7688</v>
+        <v>7674</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1618841509.965138</v>
+        <v>1618841509.965011</v>
       </c>
       <c r="D26" t="n">
         <v>6</v>
@@ -1524,20 +1524,20 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2791</v>
+        <v>2787</v>
       </c>
       <c r="I26" t="n">
         <v>502</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7689</v>
+        <v>7675</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1618841509.965136</v>
+        <v>1618841509.965076</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -1566,20 +1566,20 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="I27" t="n">
         <v>502</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7687</v>
+        <v>7677</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1618841509.965134</v>
+        <v>1618841509.965138</v>
       </c>
       <c r="D28" t="n">
         <v>6</v>
@@ -1608,20 +1608,20 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="I28" t="n">
         <v>502</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7690</v>
+        <v>7678</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1618841509.965194</v>
+        <v>1618841509.965136</v>
       </c>
       <c r="D29" t="n">
         <v>6</v>
@@ -1650,20 +1650,20 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="I29" t="n">
         <v>502</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7691</v>
+        <v>7676</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1618841509.965202</v>
+        <v>1618841509.965134</v>
       </c>
       <c r="D30" t="n">
         <v>6</v>
@@ -1692,20 +1692,20 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2796</v>
+        <v>2792</v>
       </c>
       <c r="I30" t="n">
         <v>502</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7692</v>
+        <v>7679</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1618841509.965206</v>
+        <v>1618841509.965194</v>
       </c>
       <c r="D31" t="n">
         <v>6</v>
@@ -1734,20 +1734,20 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2793</v>
+        <v>2789</v>
       </c>
       <c r="I31" t="n">
         <v>502</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7693</v>
+        <v>7680</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1618841509.965204</v>
+        <v>1618841509.965202</v>
       </c>
       <c r="D32" t="n">
         <v>6</v>
@@ -1776,20 +1776,20 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2790</v>
+        <v>2796</v>
       </c>
       <c r="I32" t="n">
         <v>502</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7694</v>
+        <v>7681</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1618841509.965219</v>
+        <v>1618841509.965206</v>
       </c>
       <c r="D33" t="n">
         <v>6</v>
@@ -1818,20 +1818,20 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2799</v>
+        <v>2793</v>
       </c>
       <c r="I33" t="n">
         <v>502</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7696</v>
+        <v>7682</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1618841509.965253</v>
+        <v>1618841509.965204</v>
       </c>
       <c r="D34" t="n">
         <v>6</v>
@@ -1860,20 +1860,20 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2795</v>
+        <v>2790</v>
       </c>
       <c r="I34" t="n">
         <v>502</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7695</v>
+        <v>7683</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1618841509.965223</v>
+        <v>1618841509.965219</v>
       </c>
       <c r="D35" t="n">
         <v>6</v>
@@ -1902,20 +1902,20 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="I35" t="n">
         <v>502</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7697</v>
+        <v>7685</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1618841509.965251</v>
+        <v>1618841509.965253</v>
       </c>
       <c r="D36" t="n">
         <v>6</v>
@@ -1944,20 +1944,20 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2805</v>
+        <v>2795</v>
       </c>
       <c r="I36" t="n">
         <v>502</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7698</v>
+        <v>7684</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1618841509.965315</v>
+        <v>1618841509.965223</v>
       </c>
       <c r="D37" t="n">
         <v>6</v>
@@ -1986,20 +1986,20 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2794</v>
+        <v>2802</v>
       </c>
       <c r="I37" t="n">
         <v>502</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7699</v>
+        <v>7686</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1618841509.965314</v>
+        <v>1618841509.965251</v>
       </c>
       <c r="D38" t="n">
         <v>6</v>
@@ -2028,20 +2028,20 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2798</v>
+        <v>2805</v>
       </c>
       <c r="I38" t="n">
         <v>502</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7700</v>
+        <v>7687</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1618841509.965374</v>
+        <v>1618841509.965315</v>
       </c>
       <c r="D39" t="n">
         <v>6</v>
@@ -2070,20 +2070,20 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2801</v>
+        <v>2794</v>
       </c>
       <c r="I39" t="n">
         <v>502</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7701</v>
+        <v>7688</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1618841509.965376</v>
+        <v>1618841509.965314</v>
       </c>
       <c r="D40" t="n">
         <v>6</v>
@@ -2112,20 +2112,20 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="I40" t="n">
         <v>502</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7702</v>
+        <v>7689</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1618841509.965422</v>
+        <v>1618841509.965374</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
@@ -2154,20 +2154,20 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="I41" t="n">
         <v>502</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7703</v>
+        <v>7690</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1618841509.965423</v>
+        <v>1618841509.965376</v>
       </c>
       <c r="D42" t="n">
         <v>6</v>
@@ -2196,20 +2196,20 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="I42" t="n">
         <v>502</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7704</v>
+        <v>7691</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1618841509.965478</v>
+        <v>1618841509.965422</v>
       </c>
       <c r="D43" t="n">
         <v>6</v>
@@ -2238,20 +2238,20 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="I43" t="n">
         <v>502</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7803</v>
+        <v>7692</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1618841510.000002</v>
+        <v>1618841509.965423</v>
       </c>
       <c r="D44" t="n">
         <v>6</v>
@@ -2280,20 +2280,20 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2747</v>
+        <v>2800</v>
       </c>
       <c r="I44" t="n">
         <v>502</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7997</v>
+        <v>7693</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1618841510.065045</v>
+        <v>1618841509.965478</v>
       </c>
       <c r="D45" t="n">
         <v>6</v>
@@ -2322,20 +2322,20 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="I45" t="n">
         <v>502</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7998</v>
+        <v>7792</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1618841510.065047</v>
+        <v>1618841510.000002</v>
       </c>
       <c r="D46" t="n">
         <v>6</v>
@@ -2364,20 +2364,20 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2807</v>
+        <v>2747</v>
       </c>
       <c r="I46" t="n">
         <v>502</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7999</v>
+        <v>7986</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1618841510.065104</v>
+        <v>1618841510.065045</v>
       </c>
       <c r="D47" t="n">
         <v>6</v>
@@ -2406,20 +2406,20 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="I47" t="n">
         <v>502</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8000</v>
+        <v>7987</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1618841510.065106</v>
+        <v>1618841510.065047</v>
       </c>
       <c r="D48" t="n">
         <v>6</v>
@@ -2448,20 +2448,20 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2812</v>
+        <v>2807</v>
       </c>
       <c r="I48" t="n">
         <v>502</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8002</v>
+        <v>7988</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1618841510.065155</v>
+        <v>1618841510.065104</v>
       </c>
       <c r="D49" t="n">
         <v>6</v>
@@ -2490,20 +2490,20 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2815</v>
+        <v>2808</v>
       </c>
       <c r="I49" t="n">
         <v>502</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8003</v>
+        <v>7989</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1618841510.065118</v>
+        <v>1618841510.065106</v>
       </c>
       <c r="D50" t="n">
         <v>6</v>
@@ -2532,20 +2532,20 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="I50" t="n">
         <v>502</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8004</v>
+        <v>7991</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1618841510.065157</v>
+        <v>1618841510.065155</v>
       </c>
       <c r="D51" t="n">
         <v>6</v>
@@ -2574,20 +2574,20 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2809</v>
+        <v>2815</v>
       </c>
       <c r="I51" t="n">
         <v>502</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8005</v>
+        <v>7992</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1618841510.065216</v>
+        <v>1618841510.065118</v>
       </c>
       <c r="D52" t="n">
         <v>6</v>
@@ -2616,20 +2616,20 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="I52" t="n">
         <v>502</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8006</v>
+        <v>7993</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1618841510.065219</v>
+        <v>1618841510.065157</v>
       </c>
       <c r="D53" t="n">
         <v>6</v>
@@ -2658,20 +2658,20 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>2814</v>
+        <v>2809</v>
       </c>
       <c r="I53" t="n">
         <v>502</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8007</v>
+        <v>7994</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1618841510.065258</v>
+        <v>1618841510.065216</v>
       </c>
       <c r="D54" t="n">
         <v>6</v>
@@ -2700,20 +2700,20 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="I54" t="n">
         <v>502</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8955</v>
+        <v>7995</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1618841510.548801</v>
+        <v>1618841510.065219</v>
       </c>
       <c r="D55" t="n">
         <v>6</v>
@@ -2742,20 +2742,20 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>2748</v>
+        <v>2814</v>
       </c>
       <c r="I55" t="n">
         <v>502</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9027</v>
+        <v>7996</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1618841510.588747</v>
+        <v>1618841510.065258</v>
       </c>
       <c r="D56" t="n">
         <v>6</v>
@@ -2784,20 +2784,20 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>2749</v>
+        <v>2813</v>
       </c>
       <c r="I56" t="n">
         <v>502</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9123</v>
+        <v>8942</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1618841510.645918</v>
+        <v>1618841510.548801</v>
       </c>
       <c r="D57" t="n">
         <v>6</v>
@@ -2826,20 +2826,20 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="I57" t="n">
         <v>502</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10075</v>
+        <v>9014</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1618841511.194232</v>
+        <v>1618841510.588747</v>
       </c>
       <c r="D58" t="n">
         <v>6</v>
@@ -2868,20 +2868,20 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="I58" t="n">
         <v>502</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10186</v>
+        <v>9110</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1618841511.25959</v>
+        <v>1618841510.645918</v>
       </c>
       <c r="D59" t="n">
         <v>6</v>
@@ -2910,20 +2910,20 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="I59" t="n">
         <v>502</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11244</v>
+        <v>10061</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1618841511.856534</v>
+        <v>1618841511.194232</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -2952,20 +2952,20 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="I60" t="n">
         <v>502</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11377</v>
+        <v>10172</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1618841511.929226</v>
+        <v>1618841511.25959</v>
       </c>
       <c r="D61" t="n">
         <v>6</v>
@@ -2994,20 +2994,20 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="I61" t="n">
         <v>502</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12519</v>
+        <v>11229</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1618841512.572139</v>
+        <v>1618841511.856534</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
@@ -3036,20 +3036,20 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="I62" t="n">
         <v>502</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>12569</v>
+        <v>11362</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1618841512.600031</v>
+        <v>1618841511.929226</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
@@ -3078,20 +3078,20 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="I63" t="n">
         <v>502</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>12690</v>
+        <v>12504</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1618841512.669464</v>
+        <v>1618841512.572139</v>
       </c>
       <c r="D64" t="n">
         <v>6</v>
@@ -3120,20 +3120,20 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="I64" t="n">
         <v>502</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13699</v>
+        <v>12554</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1618841513.248144</v>
+        <v>1618841512.600031</v>
       </c>
       <c r="D65" t="n">
         <v>6</v>
@@ -3162,20 +3162,20 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="I65" t="n">
         <v>502</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>13871</v>
+        <v>12675</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1618841513.349025</v>
+        <v>1618841512.669464</v>
       </c>
       <c r="D66" t="n">
         <v>6</v>
@@ -3204,20 +3204,20 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="I66" t="n">
         <v>502</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>15921</v>
+        <v>13684</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1618841514.562142</v>
+        <v>1618841513.248144</v>
       </c>
       <c r="D67" t="n">
         <v>6</v>
@@ -3246,20 +3246,20 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="I67" t="n">
         <v>502</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>16035</v>
+        <v>13856</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1618841514.626703</v>
+        <v>1618841513.349025</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>
@@ -3288,20 +3288,20 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="I68" t="n">
         <v>502</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>16225</v>
+        <v>15904</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1618841515.101115</v>
+        <v>1618841514.562142</v>
       </c>
       <c r="D69" t="n">
         <v>6</v>
@@ -3330,20 +3330,20 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="I69" t="n">
         <v>502</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>16227</v>
+        <v>16018</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1618841515.57805</v>
+        <v>1618841514.626703</v>
       </c>
       <c r="D70" t="n">
         <v>6</v>
@@ -3372,20 +3372,20 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="I70" t="n">
         <v>502</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>16228</v>
+        <v>16206</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1618841515.633912</v>
+        <v>1618841515.101115</v>
       </c>
       <c r="D71" t="n">
         <v>6</v>
@@ -3414,20 +3414,20 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="I71" t="n">
         <v>502</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>16229</v>
+        <v>16207</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1618841515.948389</v>
+        <v>1618841515.57805</v>
       </c>
       <c r="D72" t="n">
         <v>6</v>
@@ -3447,29 +3447,29 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>84.3.251.102</t>
+          <t>84.3.251.101</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>84.3.251.101</t>
+          <t>84.3.251.18</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>42491</v>
+        <v>2763</v>
       </c>
       <c r="I72" t="n">
         <v>502</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>16230</v>
+        <v>16208</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1618841515.964624</v>
+        <v>1618841515.633912</v>
       </c>
       <c r="D73" t="n">
         <v>6</v>
@@ -3498,20 +3498,20 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>2786</v>
+        <v>2764</v>
       </c>
       <c r="I73" t="n">
         <v>502</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16231</v>
+        <v>16209</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1618841515.964973</v>
+        <v>1618841515.964624</v>
       </c>
       <c r="D74" t="n">
         <v>6</v>
@@ -3540,20 +3540,20 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="I74" t="n">
         <v>502</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>16232</v>
+        <v>16210</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3582,20 +3582,20 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="I75" t="n">
         <v>502</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>16233</v>
+        <v>16211</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1618841515.965063</v>
+        <v>1618841515.964973</v>
       </c>
       <c r="D76" t="n">
         <v>6</v>
@@ -3624,20 +3624,20 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="I76" t="n">
         <v>502</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>16234</v>
+        <v>16212</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1618841515.965068</v>
+        <v>1618841515.965063</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
@@ -3666,20 +3666,20 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="I77" t="n">
         <v>502</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>16235</v>
+        <v>16213</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1618841515.96507</v>
+        <v>1618841515.965068</v>
       </c>
       <c r="D78" t="n">
         <v>6</v>
@@ -3708,20 +3708,20 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="I78" t="n">
         <v>502</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>16236</v>
+        <v>16214</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1618841515.965084</v>
+        <v>1618841515.96507</v>
       </c>
       <c r="D79" t="n">
         <v>6</v>
@@ -3750,20 +3750,20 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="I79" t="n">
         <v>502</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16237</v>
+        <v>16215</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1618841515.965086</v>
+        <v>1618841515.965084</v>
       </c>
       <c r="D80" t="n">
         <v>6</v>
@@ -3792,20 +3792,20 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="I80" t="n">
         <v>502</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>16238</v>
+        <v>16216</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1618841515.965088</v>
+        <v>1618841515.965086</v>
       </c>
       <c r="D81" t="n">
         <v>6</v>
@@ -3834,20 +3834,20 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="I81" t="n">
         <v>502</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>16239</v>
+        <v>16217</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1618841515.965089</v>
+        <v>1618841515.965088</v>
       </c>
       <c r="D82" t="n">
         <v>6</v>
@@ -3876,20 +3876,20 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="I82" t="n">
         <v>502</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>16240</v>
+        <v>16218</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1618841515.965091</v>
+        <v>1618841515.965089</v>
       </c>
       <c r="D83" t="n">
         <v>6</v>
@@ -3918,20 +3918,20 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="I83" t="n">
         <v>502</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>16241</v>
+        <v>16219</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1618841515.9651</v>
+        <v>1618841515.965091</v>
       </c>
       <c r="D84" t="n">
         <v>6</v>
@@ -3960,20 +3960,20 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="I84" t="n">
         <v>502</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>16242</v>
+        <v>16220</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1618841515.965102</v>
+        <v>1618841515.9651</v>
       </c>
       <c r="D85" t="n">
         <v>6</v>
@@ -4002,20 +4002,20 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="I85" t="n">
         <v>502</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>16243</v>
+        <v>16221</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1618841515.965104</v>
+        <v>1618841515.965102</v>
       </c>
       <c r="D86" t="n">
         <v>6</v>
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="I86" t="n">
         <v>502</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16244</v>
+        <v>16222</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1618841515.96532</v>
+        <v>1618841515.965104</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -4086,20 +4086,20 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="I87" t="n">
         <v>502</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>16245</v>
+        <v>16223</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1618841515.965323</v>
+        <v>1618841515.96532</v>
       </c>
       <c r="D88" t="n">
         <v>6</v>
@@ -4128,20 +4128,20 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="I88" t="n">
         <v>502</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>16246</v>
+        <v>16224</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1618841515.96544</v>
+        <v>1618841515.965323</v>
       </c>
       <c r="D89" t="n">
         <v>6</v>
@@ -4170,20 +4170,20 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="I89" t="n">
         <v>502</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>16247</v>
+        <v>16225</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1618841515.965443</v>
+        <v>1618841515.96544</v>
       </c>
       <c r="D90" t="n">
         <v>6</v>
@@ -4212,20 +4212,20 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="I90" t="n">
         <v>502</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>16248</v>
+        <v>16226</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1618841515.965445</v>
+        <v>1618841515.965443</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
@@ -4254,20 +4254,20 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="I91" t="n">
         <v>502</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>16249</v>
+        <v>16227</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1618841515.965447</v>
+        <v>1618841515.965445</v>
       </c>
       <c r="D92" t="n">
         <v>6</v>
@@ -4296,20 +4296,20 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="I92" t="n">
         <v>502</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>16250</v>
+        <v>16228</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1618841516.06495</v>
+        <v>1618841515.965447</v>
       </c>
       <c r="D93" t="n">
         <v>6</v>
@@ -4338,20 +4338,20 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="I93" t="n">
         <v>502</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>16251</v>
+        <v>16229</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1618841516.065045</v>
+        <v>1618841516.06495</v>
       </c>
       <c r="D94" t="n">
         <v>6</v>
@@ -4380,20 +4380,20 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="I94" t="n">
         <v>502</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16252</v>
+        <v>16230</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1618841516.065049</v>
+        <v>1618841516.065045</v>
       </c>
       <c r="D95" t="n">
         <v>6</v>
@@ -4422,20 +4422,20 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="I95" t="n">
         <v>502</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>16253</v>
+        <v>16231</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1618841516.065065</v>
+        <v>1618841516.065049</v>
       </c>
       <c r="D96" t="n">
         <v>6</v>
@@ -4464,20 +4464,20 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="I96" t="n">
         <v>502</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>16254</v>
+        <v>16232</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1618841516.065067</v>
+        <v>1618841516.065065</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -4506,20 +4506,20 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="I97" t="n">
         <v>502</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>16255</v>
+        <v>16233</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1618841516.065069</v>
+        <v>1618841516.065067</v>
       </c>
       <c r="D98" t="n">
         <v>6</v>
@@ -4548,20 +4548,20 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="I98" t="n">
         <v>502</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>16256</v>
+        <v>16234</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1618841516.06507</v>
+        <v>1618841516.065069</v>
       </c>
       <c r="D99" t="n">
         <v>6</v>
@@ -4590,20 +4590,20 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="I99" t="n">
         <v>502</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>16257</v>
+        <v>16235</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1618841516.065165</v>
+        <v>1618841516.06507</v>
       </c>
       <c r="D100" t="n">
         <v>6</v>
@@ -4632,20 +4632,20 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="I100" t="n">
         <v>502</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>16258</v>
+        <v>16236</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1618841516.065169</v>
+        <v>1618841516.065165</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
@@ -4674,20 +4674,20 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="I101" t="n">
         <v>502</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>16259</v>
+        <v>16237</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1618841516.065184</v>
+        <v>1618841516.065169</v>
       </c>
       <c r="D102" t="n">
         <v>6</v>
@@ -4716,20 +4716,20 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="I102" t="n">
         <v>502</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>16260</v>
+        <v>16238</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1618841516.179702</v>
+        <v>1618841516.065184</v>
       </c>
       <c r="D103" t="n">
         <v>6</v>
@@ -4758,20 +4758,20 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>2765</v>
+        <v>2815</v>
       </c>
       <c r="I103" t="n">
         <v>502</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>16261</v>
+        <v>16239</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1618841516.208532</v>
+        <v>1618841516.179702</v>
       </c>
       <c r="D104" t="n">
         <v>6</v>
@@ -4800,20 +4800,20 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="I104" t="n">
         <v>502</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>16262</v>
+        <v>16240</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1618841516.241957</v>
+        <v>1618841516.208532</v>
       </c>
       <c r="D105" t="n">
         <v>6</v>
@@ -4842,20 +4842,20 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="I105" t="n">
         <v>502</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>16263</v>
+        <v>16241</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1618841516.851598</v>
+        <v>1618841516.241957</v>
       </c>
       <c r="D106" t="n">
         <v>6</v>
@@ -4884,20 +4884,20 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="I106" t="n">
         <v>502</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>16264</v>
+        <v>16242</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1618841516.893873</v>
+        <v>1618841516.851598</v>
       </c>
       <c r="D107" t="n">
         <v>6</v>
@@ -4926,20 +4926,20 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="I107" t="n">
         <v>502</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>16266</v>
+        <v>16243</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1618841516.952079</v>
+        <v>1618841516.893873</v>
       </c>
       <c r="D108" t="n">
         <v>6</v>
@@ -4968,20 +4968,20 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="I108" t="n">
         <v>502</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>16268</v>
+        <v>16245</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1618841517.517778</v>
+        <v>1618841516.952079</v>
       </c>
       <c r="D109" t="n">
         <v>6</v>
@@ -5010,20 +5010,20 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="I109" t="n">
         <v>502</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>16270</v>
+        <v>16246</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1618841517.585744</v>
+        <v>1618841517.517778</v>
       </c>
       <c r="D110" t="n">
         <v>6</v>
@@ -5052,20 +5052,20 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="I110" t="n">
         <v>502</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>16274</v>
+        <v>16247</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1618841518.29896</v>
+        <v>1618841517.585744</v>
       </c>
       <c r="D111" t="n">
         <v>6</v>
@@ -5094,20 +5094,20 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="I111" t="n">
         <v>502</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>16275</v>
+        <v>16249</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1618841518.924232</v>
+        <v>1618841518.29896</v>
       </c>
       <c r="D112" t="n">
         <v>6</v>
@@ -5136,20 +5136,20 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="I112" t="n">
         <v>502</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>16276</v>
+        <v>16250</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1618841519.000106</v>
+        <v>1618841518.924232</v>
       </c>
       <c r="D113" t="n">
         <v>6</v>
@@ -5178,20 +5178,20 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="I113" t="n">
         <v>502</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>16277</v>
+        <v>16251</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1618841519.590644</v>
+        <v>1618841519.000106</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
@@ -5220,20 +5220,20 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="I114" t="n">
         <v>502</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>16278</v>
+        <v>16252</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1618841519.657885</v>
+        <v>1618841519.590644</v>
       </c>
       <c r="D115" t="n">
         <v>6</v>
@@ -5262,20 +5262,20 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="I115" t="n">
         <v>502</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>16280</v>
+        <v>16253</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1618841520.351269</v>
+        <v>1618841519.657885</v>
       </c>
       <c r="D116" t="n">
         <v>6</v>
@@ -5304,20 +5304,20 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="I116" t="n">
         <v>502</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>16281</v>
+        <v>16255</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1618841520.479216</v>
+        <v>1618841520.351269</v>
       </c>
       <c r="D117" t="n">
         <v>6</v>
@@ -5346,20 +5346,20 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="I117" t="n">
         <v>502</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>16282</v>
+        <v>16256</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1618841520.58533</v>
+        <v>1618841520.479216</v>
       </c>
       <c r="D118" t="n">
         <v>6</v>
@@ -5388,20 +5388,20 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="I118" t="n">
         <v>502</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>16283</v>
+        <v>16257</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1618841521.425839</v>
+        <v>1618841520.58533</v>
       </c>
       <c r="D119" t="n">
         <v>6</v>
@@ -5430,20 +5430,20 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="I119" t="n">
         <v>502</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>16284</v>
+        <v>16258</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1618841521.546142</v>
+        <v>1618841521.425839</v>
       </c>
       <c r="D120" t="n">
         <v>6</v>
@@ -5472,20 +5472,20 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="I120" t="n">
         <v>502</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>16286</v>
+        <v>16259</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1618841521.601679</v>
+        <v>1618841521.546142</v>
       </c>
       <c r="D121" t="n">
         <v>6</v>
@@ -5514,20 +5514,20 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="I121" t="n">
         <v>502</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>16290</v>
+        <v>16260</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1618841522.587422</v>
+        <v>1618841521.601679</v>
       </c>
       <c r="D122" t="n">
         <v>6</v>
@@ -5556,20 +5556,20 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="I122" t="n">
         <v>502</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>16293</v>
+        <v>16261</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1618841523.55503</v>
+        <v>1618841522.587422</v>
       </c>
       <c r="D123" t="n">
         <v>6</v>
@@ -5598,20 +5598,20 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="I123" t="n">
         <v>502</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>16294</v>
+        <v>16263</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1618841523.635223</v>
+        <v>1618841523.55503</v>
       </c>
       <c r="D124" t="n">
         <v>6</v>
@@ -5640,20 +5640,20 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="I124" t="n">
         <v>502</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>16295</v>
+        <v>16264</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1618841523.676716</v>
+        <v>1618841523.635223</v>
       </c>
       <c r="D125" t="n">
         <v>6</v>
@@ -5682,20 +5682,20 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="I125" t="n">
         <v>502</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>16296</v>
+        <v>16265</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1618841524.562131</v>
+        <v>1618841523.676716</v>
       </c>
       <c r="D126" t="n">
         <v>6</v>
@@ -5724,20 +5724,20 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="I126" t="n">
         <v>502</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>16298</v>
+        <v>16266</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1618841524.618308</v>
+        <v>1618841524.562131</v>
       </c>
       <c r="D127" t="n">
         <v>6</v>
@@ -5766,20 +5766,20 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="I127" t="n">
         <v>502</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>16302</v>
+        <v>16267</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1618841525.596375</v>
+        <v>1618841524.618308</v>
       </c>
       <c r="D128" t="n">
         <v>6</v>
@@ -5808,20 +5808,20 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="I128" t="n">
         <v>502</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>16303</v>
+        <v>16268</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1618841525.696394</v>
+        <v>1618841525.596375</v>
       </c>
       <c r="D129" t="n">
         <v>6</v>
@@ -5850,20 +5850,20 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="I129" t="n">
         <v>502</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>16304</v>
+        <v>16269</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1618841525.801733</v>
+        <v>1618841525.696394</v>
       </c>
       <c r="D130" t="n">
         <v>6</v>
@@ -5883,29 +5883,29 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>84.3.251.102</t>
+          <t>84.3.251.101</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>84.3.251.101</t>
+          <t>84.3.251.18</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>42491</v>
+        <v>2791</v>
       </c>
       <c r="I130" t="n">
         <v>502</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>16305</v>
+        <v>16270</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -5941,13 +5941,13 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>16306</v>
+        <v>16271</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -5983,13 +5983,13 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>16307</v>
+        <v>16272</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -6025,13 +6025,13 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>16309</v>
+        <v>16274</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -6067,13 +6067,13 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>16310</v>
+        <v>16275</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -6109,13 +6109,13 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>16312</v>
+        <v>16277</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -6151,13 +6151,13 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>16313</v>
+        <v>16278</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -6193,13 +6193,13 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>16314</v>
+        <v>16279</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -6235,13 +6235,13 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>16318</v>
+        <v>16283</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -6277,13 +6277,13 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>16316</v>
+        <v>16281</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -6319,13 +6319,13 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>16315</v>
+        <v>16280</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -6361,13 +6361,13 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>16317</v>
+        <v>16282</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -6403,13 +6403,13 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>16319</v>
+        <v>16284</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -6445,13 +6445,13 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>16311</v>
+        <v>16276</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -6487,13 +6487,13 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>16320</v>
+        <v>16285</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -6529,13 +6529,13 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>16321</v>
+        <v>16286</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -6571,13 +6571,13 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>16322</v>
+        <v>16287</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -6613,13 +6613,13 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>16323</v>
+        <v>16288</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -6655,13 +6655,13 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>16324</v>
+        <v>16289</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -6697,13 +6697,13 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>16325</v>
+        <v>16290</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>16326</v>
+        <v>16291</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -6781,13 +6781,13 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>16327</v>
+        <v>16292</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -6823,13 +6823,13 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>16328</v>
+        <v>16293</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -6865,13 +6865,13 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>16329</v>
+        <v>16294</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -6907,13 +6907,13 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>16332</v>
+        <v>16295</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -6949,13 +6949,13 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>16333</v>
+        <v>16296</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -6991,13 +6991,13 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>16334</v>
+        <v>16297</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -7033,13 +7033,13 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>16336</v>
+        <v>16299</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -7075,13 +7075,13 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>16335</v>
+        <v>16298</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -7117,13 +7117,13 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>16337</v>
+        <v>16300</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -7159,13 +7159,13 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>16338</v>
+        <v>16301</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -7201,13 +7201,13 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>16339</v>
+        <v>16302</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -7243,13 +7243,13 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>16343</v>
+        <v>16306</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -7285,13 +7285,13 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>16348</v>
+        <v>16311</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -7327,13 +7327,13 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>16349</v>
+        <v>16312</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -7369,13 +7369,13 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>16350</v>
+        <v>16313</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -7411,13 +7411,13 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>16346</v>
+        <v>16309</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -7453,13 +7453,13 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>16351</v>
+        <v>16314</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -7495,13 +7495,13 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16352</v>
+        <v>16315</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -7537,13 +7537,13 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>16353</v>
+        <v>16316</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -7579,13 +7579,13 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>16354</v>
+        <v>16317</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -7621,13 +7621,13 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16340</v>
+        <v>16303</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -7663,13 +7663,13 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>16355</v>
+        <v>16318</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -7705,13 +7705,13 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16356</v>
+        <v>16319</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -7747,13 +7747,13 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>16347</v>
+        <v>16310</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -7789,13 +7789,13 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>16342</v>
+        <v>16305</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -7831,13 +7831,13 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>16341</v>
+        <v>16304</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -7873,13 +7873,13 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>16357</v>
+        <v>16320</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -7915,13 +7915,13 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>16358</v>
+        <v>16321</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -7957,13 +7957,13 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>16359</v>
+        <v>16322</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -7999,13 +7999,13 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>16345</v>
+        <v>16308</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -8041,13 +8041,13 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>16360</v>
+        <v>16323</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -8083,13 +8083,13 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>16344</v>
+        <v>16307</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -8125,13 +8125,13 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>16361</v>
+        <v>16324</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -8167,13 +8167,13 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>16362</v>
+        <v>16325</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -8209,13 +8209,13 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>16363</v>
+        <v>16326</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -8251,13 +8251,13 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>16366</v>
+        <v>16327</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -8293,13 +8293,13 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>16367</v>
+        <v>16328</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -8335,13 +8335,13 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>16368</v>
+        <v>16329</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -8377,13 +8377,13 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>16370</v>
+        <v>16331</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -8419,13 +8419,13 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>16371</v>
+        <v>16332</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -8461,13 +8461,13 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>16372</v>
+        <v>16333</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -8503,13 +8503,13 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>16375</v>
+        <v>16334</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -8545,13 +8545,13 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>16379</v>
+        <v>16336</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -8587,13 +8587,13 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>csv_T0814-TCP_Flood_2-13[2]_flows.xlsx</t>
+          <t>csv_T0814-TCP_Flood_2-13_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -8629,13 +8629,13 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>csv_T0888-NULL_SCAN_2-4[2]_flows.xlsx</t>
+          <t>csv_T0846-NULL_SCAN_2-4_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -8671,91 +8671,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>csv_T0888-NULL_SCAN_2-4[2]_flows.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>7</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>1618839670.458471</v>
-      </c>
-      <c r="D197" t="n">
-        <v>6</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>0x8029</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>84.3.251.110</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>84.3.251.102</t>
-        </is>
-      </c>
-      <c r="H197" t="n">
-        <v>41212</v>
-      </c>
-      <c r="I197" t="n">
-        <v>502</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>csv_T0888-XMAS_SCAN_2-3[2]_flows.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>9</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>1618839670.55655</v>
-      </c>
-      <c r="D198" t="n">
-        <v>6</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>0x8029</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>84.3.251.110</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>84.3.251.102</t>
-        </is>
-      </c>
-      <c r="H198" t="n">
-        <v>41213</v>
-      </c>
-      <c r="I198" t="n">
-        <v>502</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>csv_T0888-XMAS_SCAN_2-3[2]_flows.xlsx</t>
+          <t>csv_T0846-NULL_SCAN_2-4_fixed[2]_flows.xlsx</t>
         </is>
       </c>
     </row>
